--- a/data/devil-jin-tekken-8-frame-data.xlsx
+++ b/data/devil-jin-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -520,15 +516,11 @@
         <v>11</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -552,15 +544,11 @@
         <v>25</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -590,15 +578,11 @@
       <c r="D5" t="n">
         <v>17</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -618,15 +602,11 @@
         <v>13</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -650,15 +630,11 @@
         <v>25</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -682,15 +658,11 @@
         <v>19</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+24a</t>
-        </is>
+      <c r="E8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -710,15 +682,11 @@
         <v>49</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+12c</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -738,15 +706,11 @@
         <v>23</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -772,15 +736,11 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -800,15 +760,11 @@
         <v>29</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -858,15 +814,11 @@
       <c r="D14" t="n">
         <v>17</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-6</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -886,15 +838,11 @@
         <v>27</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -918,15 +866,11 @@
         <v>47</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+72(+56)</t>
-        </is>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>72</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -946,15 +890,11 @@
         <v>47</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+15(+6)</t>
-        </is>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -974,15 +914,11 @@
         <v>27</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1004,15 +940,11 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1034,15 +966,11 @@
       <c r="D20" t="n">
         <v>16</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1064,15 +992,11 @@
       <c r="D21" t="n">
         <v>24</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+72(+56)</t>
-        </is>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>72</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1098,15 +1022,11 @@
       <c r="D22" t="n">
         <v>29</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1128,15 +1048,11 @@
       <c r="D23" t="n">
         <v>12</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1158,15 +1074,11 @@
       <c r="D24" t="n">
         <v>20</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-1c</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+7c</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1196,15 +1108,11 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+23(+13)</t>
-        </is>
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1230,15 +1138,9 @@
       <c r="D26" t="n">
         <v>63</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1264,15 +1166,11 @@
       <c r="D27" t="n">
         <v>14</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1294,15 +1192,11 @@
       <c r="D28" t="n">
         <v>30</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+29(+19)</t>
-        </is>
+      <c r="E28" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1328,15 +1222,11 @@
       <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+8(-1)/HE</t>
-        </is>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1362,15 +1252,11 @@
       <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+10/HE</t>
-        </is>
+      <c r="E30" t="n">
+        <v>18</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -1396,15 +1282,11 @@
       <c r="D31" t="n">
         <v>17</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1430,15 +1312,11 @@
       <c r="D32" t="n">
         <v>25</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1464,15 +1342,11 @@
       <c r="D33" t="n">
         <v>15</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1498,15 +1372,11 @@
       <c r="D34" t="n">
         <v>22</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1536,15 +1406,11 @@
       <c r="D35" t="n">
         <v>15</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1570,15 +1436,11 @@
       <c r="D36" t="n">
         <v>15</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+2/HE</t>
-        </is>
+      <c r="E36" t="n">
+        <v>14</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1600,15 +1462,11 @@
       <c r="D37" t="n">
         <v>22</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>70</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1634,15 +1492,11 @@
       <c r="D38" t="n">
         <v>20</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-29</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
+      <c r="E38" t="n">
+        <v>29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-20</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1665,10 +1519,8 @@
         <v>22</v>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+52(+7)</t>
-        </is>
+      <c r="F39" t="n">
+        <v>52</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1691,10 +1543,8 @@
         <v>28</v>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="F40" t="n">
+        <v>-6</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1716,15 +1566,11 @@
       <c r="D41" t="n">
         <v>18</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+20(+10)</t>
-        </is>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1750,15 +1596,11 @@
       <c r="D42" t="n">
         <v>18</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-12c</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1784,15 +1626,11 @@
       <c r="D43" t="n">
         <v>15</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+30(+20)</t>
-        </is>
+      <c r="E43" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1814,15 +1652,11 @@
       <c r="D44" t="n">
         <v>23</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1848,15 +1682,11 @@
       <c r="D45" t="n">
         <v>61</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+37</t>
-        </is>
+      <c r="E45" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1882,15 +1712,11 @@
       <c r="D46" t="n">
         <v>21</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+3c</t>
-        </is>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1920,15 +1746,11 @@
       <c r="D47" t="n">
         <v>13</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1950,15 +1772,11 @@
       <c r="D48" t="n">
         <v>17</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+44(-16)</t>
-        </is>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>44</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1984,15 +1802,11 @@
       <c r="D49" t="n">
         <v>15</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2018,15 +1832,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2048,15 +1858,11 @@
       <c r="D51" t="n">
         <v>19</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-7</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2078,15 +1884,11 @@
       <c r="D52" t="n">
         <v>29</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+18(+8)</t>
-        </is>
+      <c r="E52" t="n">
+        <v>22</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2112,15 +1914,11 @@
       <c r="D53" t="n">
         <v>13</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2142,15 +1940,11 @@
       <c r="D54" t="n">
         <v>13</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2172,15 +1966,11 @@
       <c r="D55" t="n">
         <v>17</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2202,15 +1992,11 @@
       <c r="D56" t="n">
         <v>15</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E56" t="n">
+        <v>11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2232,15 +2018,11 @@
       <c r="D57" t="n">
         <v>15</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E57" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2262,15 +2044,11 @@
       <c r="D58" t="n">
         <v>26</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+18(+8)</t>
-        </is>
+      <c r="E58" t="n">
+        <v>22</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2296,15 +2074,11 @@
       <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E59" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2330,15 +2104,11 @@
       <c r="D60" t="n">
         <v>20</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2364,15 +2134,11 @@
       <c r="D61" t="n">
         <v>22</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E61" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2398,15 +2164,11 @@
       <c r="D62" t="n">
         <v>14</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E62" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2436,15 +2198,11 @@
       <c r="D63" t="n">
         <v>22</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>70</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2474,15 +2232,11 @@
       <c r="D64" t="n">
         <v>26</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>70</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2512,15 +2266,11 @@
       <c r="D65" t="n">
         <v>15</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2550,15 +2300,11 @@
       <c r="D66" t="n">
         <v>26</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>70</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2584,15 +2330,11 @@
       <c r="D67" t="n">
         <v>33</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E67" t="n">
+        <v>23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2618,15 +2360,11 @@
       <c r="D68" t="n">
         <v>20</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E68" t="n">
+        <v>23</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-5</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2653,10 +2391,8 @@
         <v>29</v>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+58(+42)</t>
-        </is>
+      <c r="F69" t="n">
+        <v>58</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2682,15 +2418,11 @@
       <c r="D70" t="n">
         <v>25</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+4c</t>
-        </is>
+      <c r="E70" t="n">
+        <v>16</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2712,15 +2444,11 @@
       <c r="D71" t="n">
         <v>18</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>+11 CRO</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="E71" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F71" t="n">
+        <v>70</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2750,15 +2478,9 @@
       <c r="D72" t="n">
         <v>20</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>70</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2788,15 +2510,11 @@
       <c r="D73" t="n">
         <v>17</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E73" t="n">
+        <v>22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2846,15 +2564,11 @@
       <c r="D75" t="n">
         <v>20</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+15(+5)</t>
-        </is>
+      <c r="E75" t="n">
+        <v>25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2880,15 +2594,9 @@
       <c r="D76" t="n">
         <v>47</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>70</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2918,15 +2626,11 @@
       <c r="D77" t="n">
         <v>13</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2952,15 +2656,11 @@
       <c r="D78" t="n">
         <v>13</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E78" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2990,15 +2690,11 @@
       <c r="D79" t="n">
         <v>15</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3028,15 +2724,11 @@
       <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E80" t="n">
+        <v>11</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3066,15 +2758,11 @@
       <c r="D81" t="n">
         <v>11</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3100,15 +2788,11 @@
       <c r="D82" t="n">
         <v>11</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E82" t="n">
+        <v>16</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3137,6 +2821,960 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>df+3,2,5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>42</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29</v>
+      </c>
+      <c r="E85" t="n">
+        <v>22</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>On hit hold ub, u or uf to shift to FLY at +36(+26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>df+4</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>df+4,4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>36</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>f+2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>f+2,4</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>31</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>f+4,3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>24</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26</v>
+      </c>
+      <c r="E91" t="n">
+        <v>22</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>On hit, hold ub, u or uf to transition to Fly / Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>f, F+2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Heat Engager</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>f, F+4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>22</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>70</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>f, f, F+3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>30</v>
+      </c>
+      <c r="D94" t="n">
+        <v>22</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>f,n,d,df#2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>23</v>
+      </c>
+      <c r="D95" t="n">
+        <v>14</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Chip Damage, Just Frame input</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>30</v>
+      </c>
+      <c r="D96" t="n">
+        <v>22</v>
+      </c>
+      <c r="E96" t="n">
+        <v>16</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Hold U/F on hit for Heaven's Door 40 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1+2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>25</v>
+      </c>
+      <c r="D97" t="n">
+        <v>26</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Chip Damage, Wall Break, Leaves opponent Face Up/Head Towards on CH</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>f,n,d,df+2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>20</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Consumes meter &amp; acts as EWGF during Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>f,n,d,df+3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" t="n">
+        <v>26</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>70</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>24</v>
+      </c>
+      <c r="D100" t="n">
+        <v>33</v>
+      </c>
+      <c r="E100" t="n">
+        <v>23</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Leaves opponent Face Down/Head Towards, Forces Crouch on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Forces Crouch on hit &amp; block</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,1+2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LSM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>19</v>
+      </c>
+      <c r="D102" t="n">
+        <v>29</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>58</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Only on hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>38</v>
+      </c>
+      <c r="D103" t="n">
+        <v>25</v>
+      </c>
+      <c r="E103" t="n">
+        <v>16</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>M,H,TH</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>52</v>
+      </c>
+      <c r="D104" t="n">
+        <v>18</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F104" t="n">
+        <v>70</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>H.CRO.2+3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>UB(M)</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>39</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>70</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>22</v>
+      </c>
+      <c r="F106" t="n">
+        <v>70</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>High Launcher, hold U on hit for 69 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>u+1+2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Air laser</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>u+4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>22</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+      <c r="E108" t="n">
+        <v>25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Alternate input: ub+3 / On hit hold ub, u or uf to transition to fly at +35(+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>40</v>
+      </c>
+      <c r="D109" t="n">
+        <v>47</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>70</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Chip damage when guarded / Wallsplat / Jack-8 or Alisa can recovery 20 by input 1+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ws1,2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>27</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Hold F to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Chip Damage, Tornado Screw</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>15</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hold F on hit to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ws4,4</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>30</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11</v>
+      </c>
+      <c r="E115" t="n">
+        <v>16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/devil-jin-tekken-8-frame-data.xlsx
+++ b/data/devil-jin-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,3306 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1,1,2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>H,H,M</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1+2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1,2,2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>H,H,H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H,H,M</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1,2,3,4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H,H,M,M</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1,2,4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H,H,M</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HH</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2+3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Heat Burst</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3,1,2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MHM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>47</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>72</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3,1,4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MHM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3,1,f,F</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>24</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4+1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SL,H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4+1,2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SL,HM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>525</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>72</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4~3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>29</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b+1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>b+1+2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+24</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>b+1,2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Wallsplat / Hold B to cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>b+1+4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UB(M)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>60</v>
+      </c>
+      <c r="D26" t="n">
+        <v>63</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>b+2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>b+2,1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>32</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>b+2,3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Heat Engager / Wallsplat / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>b+3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Heat Engager / Wallsplat</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>b+4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+30(+24)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>b, f+1+2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>b, f+2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CRO+1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>22</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Leaves opponent Face Down/Head Towards</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CRO+2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Homing</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CRO+2,2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CRO+3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>26</v>
+      </c>
+      <c r="D37" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>70</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Chip Damage, Tornado Screw</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CRO+4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CRO+4,2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>24</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>52</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CRO+4,2,1+2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MMTH</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="n">
+        <v>28</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>d+1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>absorb an attack to power up / - Add chip damage when guarded / Wallsplat</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>d+3</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>d+3+4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>db+1+2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Hold F during startup to feint into CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>db+1+2 (Hold)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" t="n">
+        <v>61</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Chip Damage, Guard Break on block, hold F during startup to feint into CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>db+2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>+26</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>df+1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>df+1,2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>31</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>44</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Wallsplat</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>df+2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hold F to enter CRO at +14</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>df+3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>16</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>df+3,2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>22</v>
+      </c>
+      <c r="D51" t="n">
+        <v>19</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>df+3,2,5</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>42</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>On hit hold ub, u or uf to shift to FLY at +36(+26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>df+4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>df+4,4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>36</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>f+2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>14</v>
+      </c>
+      <c r="D55" t="n">
+        <v>17</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>f+2,4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>31</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>f+4,3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>24</v>
+      </c>
+      <c r="D58" t="n">
+        <v>26</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>On hit, hold ub, u or uf to transition to Fly / Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>f, F+2</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>24</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Heat Engager</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>f, F+4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>22</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>f, f, F+3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>f,n,d,df#2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>23</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Chip Damage, Just Frame input</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>30</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>70</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Hold U/F on hit for Heaven's Door 40 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1+2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>25</v>
+      </c>
+      <c r="D64" t="n">
+        <v>26</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>70</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Chip Damage, Wall Break, Leaves opponent Face Up/Head Towards on CH</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>f,n,d,df+2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Consumes meter &amp; acts as EWGF during Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>f,n,d,df+3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>26</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>70</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>24</v>
+      </c>
+      <c r="D67" t="n">
+        <v>33</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Leaves opponent Face Down/Head Towards, Forces Crouch on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Forces Crouch on hit &amp; block</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,1+2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LSM</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>19</v>
+      </c>
+      <c r="D69" t="n">
+        <v>29</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>58</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Only on hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>38</v>
+      </c>
+      <c r="D70" t="n">
+        <v>25</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>M,H,TH</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>52</v>
+      </c>
+      <c r="D71" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" t="n">
+        <v>11</v>
+      </c>
+      <c r="F71" t="n">
+        <v>70</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>H.CRO.2+3</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>UB(M)</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>39</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>70</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>25</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>High Launcher, hold U on hit for 69 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>u+1+2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Air laser</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>u+4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>22</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Alternate input: ub+3 / On hit hold ub, u or uf to transition to fly at +35(+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>40</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>70</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Chip damage when guarded / Wallsplat / Jack-8 or Alisa can recovery 20 by input 1+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>12</v>
+      </c>
+      <c r="D77" t="n">
+        <v>13</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ws1,2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>27</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Hold F to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>20</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Chip Damage, Tornado Screw</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15</v>
+      </c>
+      <c r="D80" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hold F on hit to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ws4,4</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>30</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>df+3,2,5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>42</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>On hit hold ub, u or uf to shift to FLY at +36(+26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>df+4</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>13</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>df+4,4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>36</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>f+2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>f+2,4</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>31</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>f+4,3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>24</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>On hit, hold ub, u or uf to transition to Fly / Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>f, F+2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Heat Engager</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>f, F+4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>22</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>70</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>f, f, F+3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>30</v>
+      </c>
+      <c r="D94" t="n">
+        <v>22</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>f,n,d,df#2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>23</v>
+      </c>
+      <c r="D95" t="n">
+        <v>14</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Chip Damage, Just Frame input</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>30</v>
+      </c>
+      <c r="D96" t="n">
+        <v>22</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Hold U/F on hit for Heaven's Door 40 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>f,n,d,df+1+2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>25</v>
+      </c>
+      <c r="D97" t="n">
+        <v>26</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Chip Damage, Wall Break, Leaves opponent Face Up/Head Towards on CH</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>f,n,d,df+2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>20</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Consumes meter &amp; acts as EWGF during Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>f,n,d,df+3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" t="n">
+        <v>26</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>70</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Chip Damage</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>24</v>
+      </c>
+      <c r="D100" t="n">
+        <v>33</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Leaves opponent Face Down/Head Towards, Forces Crouch on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Forces Crouch on hit &amp; block</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,1+2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LSM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>19</v>
+      </c>
+      <c r="D102" t="n">
+        <v>29</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>58</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Only on hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>f,n,d,DF+4,4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>38</v>
+      </c>
+      <c r="D103" t="n">
+        <v>25</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>M,H,TH</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>52</v>
+      </c>
+      <c r="D104" t="n">
+        <v>18</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11</v>
+      </c>
+      <c r="F104" t="n">
+        <v>70</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>H.CRO.2+3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>UB(M)</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>39</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>70</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Heat Smash / Alternate input: R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F106" t="n">
+        <v>70</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>High Launcher, hold U on hit for 69 damage followup</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>u+1+2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Air laser</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>u+4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>22</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Alternate input: ub+3 / On hit hold ub, u or uf to transition to fly at +35(+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>40</v>
+      </c>
+      <c r="D109" t="n">
+        <v>47</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>70</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>KND</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Chip damage when guarded / Wallsplat / Jack-8 or Alisa can recovery 20 by input 1+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ws1,2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>27</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Hold F to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Chip Damage, Tornado Screw</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>15</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F113" t="n">
+        <v>9</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hold F on hit to enter CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ws4,4</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>30</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
